--- a/data/trans_orig/IP12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP12-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E18CE64-0D6D-4191-9EAC-14B4A84AD704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F84E4E7D-C02A-401A-97E6-103B545E5AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{EC3D304A-A208-4499-B997-D323CFA200FA}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4B7350DD-E7CC-479B-9EAF-6EC5AD1A83FE}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -134,6 +134,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>96,34%</t>
+  </si>
+  <si>
+    <t>92,72%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,7%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -191,63 +248,6 @@
     <t>7,06%</t>
   </si>
   <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
     <t>93,44%</t>
   </si>
   <si>
@@ -347,6 +347,60 @@
     <t>13,39%</t>
   </si>
   <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>92,25%</t>
+  </si>
+  <si>
+    <t>89,97%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>7,75%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>10,03%</t>
+  </si>
+  <si>
     <t>92,37%</t>
   </si>
   <si>
@@ -401,60 +455,6 @@
     <t>9,22%</t>
   </si>
   <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
     <t>91,56%</t>
   </si>
   <si>
@@ -548,6 +548,60 @@
     <t>12,25%</t>
   </si>
   <si>
+    <t>92,5%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>93,67%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>95,87%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>9,38%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
     <t>94,84%</t>
   </si>
   <si>
@@ -602,60 +656,6 @@
     <t>7,39%</t>
   </si>
   <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
     <t>93,49%</t>
   </si>
   <si>
@@ -761,6 +761,60 @@
     <t>10,99%</t>
   </si>
   <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>10,68%</t>
+  </si>
+  <si>
     <t>89,75%</t>
   </si>
   <si>
@@ -807,60 +861,6 @@
   </si>
   <si>
     <t>8,95%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
   </si>
   <si>
     <t>90,27%</t>
@@ -1300,7 +1300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB114F51-74CE-4C80-BA61-AB695E3DC9C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B53F33-578A-4DAD-9276-3CBE493BBDB0}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1573,10 +1573,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c r="D7" s="7">
-        <v>267509</v>
+        <v>199249</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1588,10 +1588,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>373</v>
+        <v>285</v>
       </c>
       <c r="I7" s="7">
-        <v>250903</v>
+        <v>193181</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1603,10 +1603,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>774</v>
+        <v>587</v>
       </c>
       <c r="N7" s="7">
-        <v>518412</v>
+        <v>392430</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1624,10 +1624,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="D8" s="7">
-        <v>13989</v>
+        <v>18792</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1639,10 +1639,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="I8" s="7">
-        <v>14700</v>
+        <v>12041</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1654,10 +1654,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="N8" s="7">
-        <v>28689</v>
+        <v>30833</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1675,10 +1675,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>422</v>
+        <v>330</v>
       </c>
       <c r="D9" s="7">
-        <v>281498</v>
+        <v>218041</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1690,10 +1690,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="I9" s="7">
-        <v>265603</v>
+        <v>205222</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1705,10 +1705,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>816</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>547101</v>
+        <v>423263</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1728,10 +1728,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>302</v>
+        <v>401</v>
       </c>
       <c r="D10" s="7">
-        <v>199249</v>
+        <v>267509</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1743,10 +1743,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>285</v>
+        <v>373</v>
       </c>
       <c r="I10" s="7">
-        <v>193181</v>
+        <v>250903</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1758,10 +1758,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>587</v>
+        <v>774</v>
       </c>
       <c r="N10" s="7">
-        <v>392430</v>
+        <v>518412</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1779,10 +1779,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D11" s="7">
-        <v>18792</v>
+        <v>13989</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1794,10 +1794,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I11" s="7">
-        <v>12041</v>
+        <v>14700</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1809,10 +1809,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N11" s="7">
-        <v>30833</v>
+        <v>28689</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1830,10 +1830,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>330</v>
+        <v>422</v>
       </c>
       <c r="D12" s="7">
-        <v>218041</v>
+        <v>281498</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1845,10 +1845,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>304</v>
+        <v>394</v>
       </c>
       <c r="I12" s="7">
-        <v>205222</v>
+        <v>265603</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1860,10 +1860,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>816</v>
       </c>
       <c r="N12" s="7">
-        <v>423263</v>
+        <v>547101</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2046,7 +2046,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78EA6138-6ABF-42D0-BFB8-F0B8ABE77410}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C560AB-9CAC-468A-A0D1-C1AB9780171D}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2206,7 +2206,7 @@
         <v>93</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2254,7 +2254,7 @@
         <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>101</v>
@@ -2319,10 +2319,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>371</v>
+        <v>309</v>
       </c>
       <c r="D7" s="7">
-        <v>251572</v>
+        <v>222091</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>102</v>
@@ -2334,10 +2334,10 @@
         <v>104</v>
       </c>
       <c r="H7" s="7">
-        <v>340</v>
+        <v>298</v>
       </c>
       <c r="I7" s="7">
-        <v>238996</v>
+        <v>212851</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>105</v>
@@ -2349,10 +2349,10 @@
         <v>107</v>
       </c>
       <c r="M7" s="7">
-        <v>711</v>
+        <v>607</v>
       </c>
       <c r="N7" s="7">
-        <v>490568</v>
+        <v>434942</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>108</v>
@@ -2370,10 +2370,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>20780</v>
+        <v>19900</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>111</v>
@@ -2385,10 +2385,10 @@
         <v>113</v>
       </c>
       <c r="H8" s="7">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="I8" s="7">
-        <v>17415</v>
+        <v>16621</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>114</v>
@@ -2400,10 +2400,10 @@
         <v>116</v>
       </c>
       <c r="M8" s="7">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="N8" s="7">
-        <v>38195</v>
+        <v>36521</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>117</v>
@@ -2421,10 +2421,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="D9" s="7">
-        <v>272352</v>
+        <v>241991</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2436,10 +2436,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>365</v>
+        <v>321</v>
       </c>
       <c r="I9" s="7">
-        <v>256411</v>
+        <v>229472</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2451,10 +2451,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>766</v>
+        <v>656</v>
       </c>
       <c r="N9" s="7">
-        <v>528763</v>
+        <v>471463</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2474,10 +2474,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>309</v>
+        <v>371</v>
       </c>
       <c r="D10" s="7">
-        <v>222091</v>
+        <v>251572</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>120</v>
@@ -2489,10 +2489,10 @@
         <v>122</v>
       </c>
       <c r="H10" s="7">
-        <v>298</v>
+        <v>340</v>
       </c>
       <c r="I10" s="7">
-        <v>212851</v>
+        <v>238996</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>123</v>
@@ -2504,10 +2504,10 @@
         <v>125</v>
       </c>
       <c r="M10" s="7">
-        <v>607</v>
+        <v>711</v>
       </c>
       <c r="N10" s="7">
-        <v>434942</v>
+        <v>490568</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>126</v>
@@ -2525,10 +2525,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7">
-        <v>19900</v>
+        <v>20780</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>129</v>
@@ -2540,10 +2540,10 @@
         <v>131</v>
       </c>
       <c r="H11" s="7">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="I11" s="7">
-        <v>16621</v>
+        <v>17415</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>132</v>
@@ -2555,10 +2555,10 @@
         <v>134</v>
       </c>
       <c r="M11" s="7">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="N11" s="7">
-        <v>36521</v>
+        <v>38195</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>135</v>
@@ -2576,10 +2576,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>335</v>
+        <v>401</v>
       </c>
       <c r="D12" s="7">
-        <v>241991</v>
+        <v>272352</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2591,10 +2591,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>321</v>
+        <v>365</v>
       </c>
       <c r="I12" s="7">
-        <v>229472</v>
+        <v>256411</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2606,10 +2606,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>656</v>
+        <v>766</v>
       </c>
       <c r="N12" s="7">
-        <v>471463</v>
+        <v>528763</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2650,7 +2650,7 @@
         <v>650099</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>140</v>
@@ -2701,7 +2701,7 @@
         <v>61292</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>147</v>
@@ -2792,7 +2792,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A3EE1BF-E4FC-4D77-A53A-A543EADCB2C7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E505E3-49E7-43ED-878D-ECAD27DCAF9E}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2952,7 +2952,7 @@
         <v>160</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>102</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3000,7 +3000,7 @@
         <v>167</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="Q5" s="7" t="s">
         <v>168</v>
@@ -3065,10 +3065,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>361</v>
+        <v>337</v>
       </c>
       <c r="D7" s="7">
-        <v>267097</v>
+        <v>231310</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>169</v>
@@ -3080,10 +3080,10 @@
         <v>171</v>
       </c>
       <c r="H7" s="7">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="I7" s="7">
-        <v>251223</v>
+        <v>220443</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>172</v>
@@ -3095,10 +3095,10 @@
         <v>174</v>
       </c>
       <c r="M7" s="7">
-        <v>713</v>
+        <v>674</v>
       </c>
       <c r="N7" s="7">
-        <v>518320</v>
+        <v>451752</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>175</v>
@@ -3116,10 +3116,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>14532</v>
+        <v>18742</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>178</v>
@@ -3131,10 +3131,10 @@
         <v>180</v>
       </c>
       <c r="H8" s="7">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I8" s="7">
-        <v>15930</v>
+        <v>14890</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>181</v>
@@ -3146,10 +3146,10 @@
         <v>183</v>
       </c>
       <c r="M8" s="7">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="N8" s="7">
-        <v>30462</v>
+        <v>33633</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>184</v>
@@ -3167,10 +3167,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>381</v>
+        <v>363</v>
       </c>
       <c r="D9" s="7">
-        <v>281629</v>
+        <v>250052</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3182,10 +3182,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="I9" s="7">
-        <v>267153</v>
+        <v>235333</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3197,10 +3197,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>755</v>
+        <v>723</v>
       </c>
       <c r="N9" s="7">
-        <v>548782</v>
+        <v>485385</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3220,10 +3220,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="D10" s="7">
-        <v>231310</v>
+        <v>267097</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>187</v>
@@ -3235,10 +3235,10 @@
         <v>189</v>
       </c>
       <c r="H10" s="7">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="I10" s="7">
-        <v>220443</v>
+        <v>251223</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>190</v>
@@ -3250,10 +3250,10 @@
         <v>192</v>
       </c>
       <c r="M10" s="7">
-        <v>674</v>
+        <v>713</v>
       </c>
       <c r="N10" s="7">
-        <v>451752</v>
+        <v>518320</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>193</v>
@@ -3271,10 +3271,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="D11" s="7">
-        <v>18742</v>
+        <v>14532</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>196</v>
@@ -3286,10 +3286,10 @@
         <v>198</v>
       </c>
       <c r="H11" s="7">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I11" s="7">
-        <v>14890</v>
+        <v>15930</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>199</v>
@@ -3301,10 +3301,10 @@
         <v>201</v>
       </c>
       <c r="M11" s="7">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="N11" s="7">
-        <v>33633</v>
+        <v>30462</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>202</v>
@@ -3322,10 +3322,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="D12" s="7">
-        <v>250052</v>
+        <v>281629</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3337,10 +3337,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>360</v>
+        <v>374</v>
       </c>
       <c r="I12" s="7">
-        <v>235333</v>
+        <v>267153</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3352,10 +3352,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>723</v>
+        <v>755</v>
       </c>
       <c r="N12" s="7">
-        <v>485385</v>
+        <v>548782</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3538,7 +3538,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E298BE44-1437-498E-BD59-72D7EC8F6019}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189A6FE1-CF9C-4B20-80C6-16EA2113DC15}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3811,49 +3811,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>443</v>
+        <v>245</v>
       </c>
       <c r="D7" s="7">
-        <v>372441</v>
+        <v>187719</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>170</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="H7" s="7">
-        <v>428</v>
+        <v>257</v>
       </c>
       <c r="I7" s="7">
-        <v>327612</v>
+        <v>182492</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M7" s="7">
-        <v>871</v>
+        <v>502</v>
       </c>
       <c r="N7" s="7">
-        <v>700055</v>
+        <v>370211</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,49 +3862,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="D8" s="7">
-        <v>30269</v>
+        <v>17336</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>180</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="I8" s="7">
-        <v>23196</v>
+        <v>15775</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N8" s="7">
-        <v>53464</v>
+        <v>33112</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,10 +3913,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>479</v>
+        <v>271</v>
       </c>
       <c r="D9" s="7">
-        <v>402710</v>
+        <v>205055</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3928,10 +3928,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>462</v>
+        <v>281</v>
       </c>
       <c r="I9" s="7">
-        <v>350808</v>
+        <v>198267</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3943,10 +3943,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>941</v>
+        <v>552</v>
       </c>
       <c r="N9" s="7">
-        <v>753519</v>
+        <v>403323</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3966,49 +3966,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>245</v>
+        <v>443</v>
       </c>
       <c r="D10" s="7">
-        <v>187719</v>
+        <v>372441</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>188</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
-        <v>257</v>
+        <v>428</v>
       </c>
       <c r="I10" s="7">
-        <v>182492</v>
+        <v>327612</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
-        <v>502</v>
+        <v>871</v>
       </c>
       <c r="N10" s="7">
-        <v>370211</v>
+        <v>700055</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,13 +4017,13 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D11" s="7">
-        <v>17336</v>
+        <v>30269</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>266</v>
@@ -4032,10 +4032,10 @@
         <v>267</v>
       </c>
       <c r="H11" s="7">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7">
-        <v>15775</v>
+        <v>23196</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>268</v>
@@ -4047,10 +4047,10 @@
         <v>270</v>
       </c>
       <c r="M11" s="7">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N11" s="7">
-        <v>33112</v>
+        <v>53464</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>271</v>
@@ -4068,10 +4068,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>271</v>
+        <v>479</v>
       </c>
       <c r="D12" s="7">
-        <v>205055</v>
+        <v>402710</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4083,10 +4083,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>281</v>
+        <v>462</v>
       </c>
       <c r="I12" s="7">
-        <v>198267</v>
+        <v>350808</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4098,10 +4098,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>552</v>
+        <v>941</v>
       </c>
       <c r="N12" s="7">
-        <v>403323</v>
+        <v>753519</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP12-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F84E4E7D-C02A-401A-97E6-103B545E5AE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8365390-AD8D-4B55-98E4-6408D5AC9907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{4B7350DD-E7CC-479B-9EAF-6EC5AD1A83FE}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6379C652-06FC-444F-A537-007D069911F8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="352">
   <si>
     <t>Menores según si limitaron su actividad por dolores o síntomas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,847 +68,1033 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>4,46%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>10,97%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>93,45%</t>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>86,58%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>89,03%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>9,0%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>91,0%</t>
+  </si>
+  <si>
+    <t>95,79%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si limitaron su actividad por dolores o síntomas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>13,85%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>13,99%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>86,15%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,01%</t>
+  </si>
+  <si>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>12,05%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>87,18%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>87,95%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>89,31%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>87,61%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>91,17%</t>
+  </si>
+  <si>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>Menores según si limitaron su actividad por dolores o síntomas en 2015 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>93,04%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>97,7%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>91,81%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
   </si>
   <si>
     <t>90,25%</t>
   </si>
   <si>
-    <t>95,7%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>92,67%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>7,33%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>Menores según si limitaron su actividad por dolores o síntomas en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>15,97%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,85%</t>
   </si>
   <si>
     <t>91,06%</t>
   </si>
   <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>92,72%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>95,03%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>4,97%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>94,96%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>Menores según si limitaron su actividad por dolores o síntomas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>90,43%</t>
-  </si>
-  <si>
-    <t>86,81%</t>
-  </si>
-  <si>
-    <t>93,18%</t>
-  </si>
-  <si>
-    <t>87,91%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>90,98%</t>
-  </si>
-  <si>
-    <t>89,21%</t>
-  </si>
-  <si>
-    <t>86,61%</t>
-  </si>
-  <si>
-    <t>9,57%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>13,19%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>9,02%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>88,35%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
+    <t>84,03%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>87,15%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>11,49%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,51%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>88,95%</t>
   </si>
   <si>
     <t>95,49%</t>
   </si>
   <si>
-    <t>92,25%</t>
-  </si>
-  <si>
-    <t>89,97%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>11,65%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>7,75%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>10,03%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>Menores según si limitaron su actividad por dolores o síntomas en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>89,88%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>10,12%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>92,5%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>93,67%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>95,87%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>9,38%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>91,33%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
   </si>
   <si>
     <t>94,45%</t>
   </si>
   <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,67%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>94,94%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>6,25%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>Menores según si limitaron su actividad por dolores o síntomas en 2023 (Tasa respuesta: 99,95%)</t>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
   </si>
   <si>
     <t>92,17%</t>
   </si>
   <si>
-    <t>87,81%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>87,22%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>12,19%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>95,17%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,05%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>8,95%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>94,26%</t>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
   <si>
     <t>92,42%</t>
   </si>
   <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
+    <t>93,54%</t>
   </si>
 </sst>
 </file>
@@ -919,7 +1105,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1015,39 +1201,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1099,7 +1285,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1210,13 +1396,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1225,6 +1404,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1289,19 +1475,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59B53F33-578A-4DAD-9276-3CBE493BBDB0}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907D3983-D955-4711-8CBE-8545E30EACF8}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1418,10 +1624,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>312</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>208549</v>
+        <v>9323</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1433,10 +1639,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>293</v>
+        <v>15</v>
       </c>
       <c r="I4" s="7">
-        <v>193059</v>
+        <v>9132</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1448,10 +1654,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>605</v>
+        <v>29</v>
       </c>
       <c r="N4" s="7">
-        <v>401609</v>
+        <v>18455</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1469,10 +1675,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="D5" s="7">
-        <v>14612</v>
+        <v>112057</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1484,10 +1690,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>27</v>
+        <v>147</v>
       </c>
       <c r="I5" s="7">
-        <v>17137</v>
+        <v>97039</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1499,10 +1705,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>49</v>
+        <v>315</v>
       </c>
       <c r="N5" s="7">
-        <v>31748</v>
+        <v>209096</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1520,10 +1726,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>334</v>
+        <v>182</v>
       </c>
       <c r="D6" s="7">
-        <v>223161</v>
+        <v>121380</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1535,10 +1741,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>320</v>
+        <v>162</v>
       </c>
       <c r="I6" s="7">
-        <v>210196</v>
+        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1550,10 +1756,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>654</v>
+        <v>344</v>
       </c>
       <c r="N6" s="7">
-        <v>433357</v>
+        <v>227551</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1573,10 +1779,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>302</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>199249</v>
+        <v>20308</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1588,10 +1794,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>285</v>
+        <v>25</v>
       </c>
       <c r="I7" s="7">
-        <v>193181</v>
+        <v>16058</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1603,10 +1809,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>587</v>
+        <v>55</v>
       </c>
       <c r="N7" s="7">
-        <v>392430</v>
+        <v>36365</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1624,10 +1830,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>28</v>
+        <v>352</v>
       </c>
       <c r="D8" s="7">
-        <v>18792</v>
+        <v>233448</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1639,10 +1845,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>19</v>
+        <v>354</v>
       </c>
       <c r="I8" s="7">
-        <v>12041</v>
+        <v>237147</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1654,10 +1860,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>47</v>
+        <v>706</v>
       </c>
       <c r="N8" s="7">
-        <v>30833</v>
+        <v>470596</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1675,10 +1881,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>330</v>
+        <v>382</v>
       </c>
       <c r="D9" s="7">
-        <v>218041</v>
+        <v>253756</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1690,10 +1896,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>304</v>
+        <v>379</v>
       </c>
       <c r="I9" s="7">
-        <v>205222</v>
+        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1705,10 +1911,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>634</v>
+        <v>761</v>
       </c>
       <c r="N9" s="7">
-        <v>423263</v>
+        <v>506961</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1728,10 +1934,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>401</v>
+        <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>267509</v>
+        <v>9968</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1743,10 +1949,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>373</v>
+        <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>250903</v>
+        <v>10743</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1758,10 +1964,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>774</v>
+        <v>30</v>
       </c>
       <c r="N10" s="7">
-        <v>518412</v>
+        <v>20711</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1770,7 +1976,7 @@
         <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1779,49 +1985,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>21</v>
+        <v>197</v>
       </c>
       <c r="D11" s="7">
-        <v>13989</v>
+        <v>131547</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>176</v>
+      </c>
+      <c r="I11" s="7">
+        <v>116805</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>21</v>
-      </c>
-      <c r="I11" s="7">
-        <v>14700</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>373</v>
+      </c>
+      <c r="N11" s="7">
+        <v>248352</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>42</v>
-      </c>
-      <c r="N11" s="7">
-        <v>28689</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1830,10 +2036,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>422</v>
+        <v>212</v>
       </c>
       <c r="D12" s="7">
-        <v>281498</v>
+        <v>141515</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1845,10 +2051,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>394</v>
+        <v>191</v>
       </c>
       <c r="I12" s="7">
-        <v>265603</v>
+        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1860,10 +2066,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>816</v>
+        <v>403</v>
       </c>
       <c r="N12" s="7">
-        <v>547101</v>
+        <v>269063</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1877,46 +2083,46 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>1015</v>
+        <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>675308</v>
+        <v>7793</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>12</v>
+      </c>
+      <c r="I13" s="7">
+        <v>7945</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>951</v>
-      </c>
-      <c r="I13" s="7">
-        <v>637143</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>14</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
       <c r="M13" s="7">
-        <v>1966</v>
+        <v>24</v>
       </c>
       <c r="N13" s="7">
-        <v>1312451</v>
+        <v>15738</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>74</v>
@@ -1934,10 +2140,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>71</v>
+        <v>298</v>
       </c>
       <c r="D14" s="7">
-        <v>47392</v>
+        <v>198256</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>77</v>
@@ -1949,10 +2155,10 @@
         <v>79</v>
       </c>
       <c r="H14" s="7">
-        <v>67</v>
+        <v>274</v>
       </c>
       <c r="I14" s="7">
-        <v>43878</v>
+        <v>186152</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>80</v>
@@ -1961,22 +2167,22 @@
         <v>81</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="M14" s="7">
-        <v>138</v>
+        <v>572</v>
       </c>
       <c r="N14" s="7">
-        <v>91270</v>
+        <v>384408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1985,55 +2191,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>310</v>
+      </c>
+      <c r="D15" s="7">
+        <v>206049</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>286</v>
+      </c>
+      <c r="I15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>596</v>
+      </c>
+      <c r="N15" s="7">
+        <v>400146</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>71</v>
+      </c>
+      <c r="D16" s="7">
+        <v>47392</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>67</v>
+      </c>
+      <c r="I16" s="7">
+        <v>43878</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M16" s="7">
+        <v>138</v>
+      </c>
+      <c r="N16" s="7">
+        <v>91270</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>1015</v>
+      </c>
+      <c r="D17" s="7">
+        <v>675308</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
+        <v>951</v>
+      </c>
+      <c r="I17" s="7">
+        <v>637143</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1966</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1312451</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1086</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>722700</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1018</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>681021</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2104</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1403721</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2046,8 +2413,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C560AB-9CAC-468A-A0D1-C1AB9780171D}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2440F14-6A9A-43F6-95A7-A4969CD76727}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2063,7 +2430,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2164,49 +2531,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>306</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>216283</v>
+        <v>13234</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>86</v>
+        <v>106</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>87</v>
+        <v>107</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="H4" s="7">
-        <v>299</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>198252</v>
+        <v>17965</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>90</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>91</v>
+        <v>111</v>
       </c>
       <c r="M4" s="7">
-        <v>605</v>
+        <v>44</v>
       </c>
       <c r="N4" s="7">
-        <v>414535</v>
+        <v>31199</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>92</v>
+        <v>112</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>32</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2215,49 +2582,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>32</v>
+        <v>189</v>
       </c>
       <c r="D5" s="7">
-        <v>22881</v>
+        <v>132756</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>94</v>
+        <v>115</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>95</v>
+        <v>116</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="H5" s="7">
-        <v>40</v>
+        <v>193</v>
       </c>
       <c r="I5" s="7">
-        <v>27256</v>
+        <v>128796</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>97</v>
+        <v>118</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>98</v>
+        <v>119</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="M5" s="7">
-        <v>72</v>
+        <v>382</v>
       </c>
       <c r="N5" s="7">
-        <v>50137</v>
+        <v>261552</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>100</v>
+        <v>121</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>101</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2266,10 +2633,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>338</v>
+        <v>207</v>
       </c>
       <c r="D6" s="7">
-        <v>239164</v>
+        <v>145990</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2281,10 +2648,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>339</v>
+        <v>219</v>
       </c>
       <c r="I6" s="7">
-        <v>225508</v>
+        <v>146761</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2296,10 +2663,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>677</v>
+        <v>426</v>
       </c>
       <c r="N6" s="7">
-        <v>464672</v>
+        <v>292751</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2319,49 +2686,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>309</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7">
-        <v>222091</v>
+        <v>25118</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>102</v>
+        <v>124</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="H7" s="7">
-        <v>298</v>
+        <v>29</v>
       </c>
       <c r="I7" s="7">
-        <v>212851</v>
+        <v>20242</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>106</v>
+        <v>127</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>107</v>
+        <v>128</v>
       </c>
       <c r="M7" s="7">
-        <v>607</v>
+        <v>63</v>
       </c>
       <c r="N7" s="7">
-        <v>434942</v>
+        <v>45359</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>109</v>
+        <v>130</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>110</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2370,49 +2737,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>26</v>
+        <v>340</v>
       </c>
       <c r="D8" s="7">
-        <v>19900</v>
+        <v>243873</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>111</v>
+        <v>132</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>112</v>
+        <v>133</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>113</v>
+        <v>78</v>
       </c>
       <c r="H8" s="7">
-        <v>23</v>
+        <v>311</v>
       </c>
       <c r="I8" s="7">
-        <v>16621</v>
+        <v>216008</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>116</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>49</v>
+        <v>651</v>
       </c>
       <c r="N8" s="7">
-        <v>36521</v>
+        <v>459882</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,10 +2788,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>335</v>
+        <v>374</v>
       </c>
       <c r="D9" s="7">
-        <v>241991</v>
+        <v>268991</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2436,10 +2803,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>321</v>
+        <v>340</v>
       </c>
       <c r="I9" s="7">
-        <v>229472</v>
+        <v>236250</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2451,10 +2818,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>656</v>
+        <v>714</v>
       </c>
       <c r="N9" s="7">
-        <v>471463</v>
+        <v>505241</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2474,49 +2841,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>371</v>
+        <v>14</v>
       </c>
       <c r="D10" s="7">
-        <v>251572</v>
+        <v>10222</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>120</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>121</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>340</v>
+        <v>20</v>
       </c>
       <c r="I10" s="7">
-        <v>238996</v>
+        <v>14011</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>125</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>711</v>
+        <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>490568</v>
+        <v>24233</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>126</v>
+        <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>128</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2525,49 +2892,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>30</v>
+        <v>214</v>
       </c>
       <c r="D11" s="7">
-        <v>20780</v>
+        <v>148349</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>129</v>
+        <v>148</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>130</v>
+        <v>149</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>131</v>
+        <v>150</v>
       </c>
       <c r="H11" s="7">
-        <v>25</v>
+        <v>203</v>
       </c>
       <c r="I11" s="7">
-        <v>17415</v>
+        <v>143032</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>132</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>134</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
-        <v>55</v>
+        <v>417</v>
       </c>
       <c r="N11" s="7">
-        <v>38195</v>
+        <v>291381</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>135</v>
+        <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>136</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,10 +2943,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>401</v>
+        <v>228</v>
       </c>
       <c r="D12" s="7">
-        <v>272352</v>
+        <v>158571</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2591,10 +2958,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>365</v>
+        <v>223</v>
       </c>
       <c r="I12" s="7">
-        <v>256411</v>
+        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2606,10 +2973,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>766</v>
+        <v>451</v>
       </c>
       <c r="N12" s="7">
-        <v>528763</v>
+        <v>315614</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2623,55 +2990,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>986</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>689947</v>
+        <v>14986</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>138</v>
+        <v>156</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>139</v>
+        <v>157</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>88</v>
+        <v>158</v>
       </c>
       <c r="H13" s="7">
-        <v>937</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>650099</v>
+        <v>9074</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>32</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>141</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
-        <v>1923</v>
+        <v>35</v>
       </c>
       <c r="N13" s="7">
-        <v>1340046</v>
+        <v>24061</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>142</v>
+        <v>73</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>144</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2680,49 +3047,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>88</v>
+        <v>243</v>
       </c>
       <c r="D14" s="7">
-        <v>63560</v>
+        <v>164969</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>145</v>
+        <v>164</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>95</v>
+        <v>165</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="H14" s="7">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="I14" s="7">
-        <v>61292</v>
+        <v>162263</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>41</v>
+        <v>167</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>148</v>
+        <v>169</v>
       </c>
       <c r="M14" s="7">
-        <v>176</v>
+        <v>473</v>
       </c>
       <c r="N14" s="7">
-        <v>124852</v>
+        <v>327231</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>149</v>
+        <v>81</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>150</v>
+        <v>170</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>151</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2731,55 +3098,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>265</v>
+      </c>
+      <c r="D15" s="7">
+        <v>179955</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>243</v>
+      </c>
+      <c r="I15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>508</v>
+      </c>
+      <c r="N15" s="7">
+        <v>351292</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>88</v>
+      </c>
+      <c r="D16" s="7">
+        <v>63560</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="H16" s="7">
+        <v>88</v>
+      </c>
+      <c r="I16" s="7">
+        <v>61292</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="M16" s="7">
+        <v>176</v>
+      </c>
+      <c r="N16" s="7">
+        <v>124852</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>986</v>
+      </c>
+      <c r="D17" s="7">
+        <v>689947</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H17" s="7">
+        <v>937</v>
+      </c>
+      <c r="I17" s="7">
+        <v>650099</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1923</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1340046</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1074</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>753507</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1025</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>711391</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2099</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1464898</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2792,8 +3320,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E505E3-49E7-43ED-878D-ECAD27DCAF9E}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E684E66F-1659-47A6-9DF3-10FE272BF586}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2809,7 +3337,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2910,49 +3438,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>297</v>
+        <v>12</v>
       </c>
       <c r="D4" s="7">
-        <v>197956</v>
+        <v>7395</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>153</v>
+        <v>191</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>154</v>
+        <v>192</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>155</v>
+        <v>193</v>
       </c>
       <c r="H4" s="7">
-        <v>286</v>
+        <v>19</v>
       </c>
       <c r="I4" s="7">
-        <v>176362</v>
+        <v>11866</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>156</v>
+        <v>194</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>157</v>
+        <v>195</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>158</v>
+        <v>196</v>
       </c>
       <c r="M4" s="7">
-        <v>583</v>
+        <v>31</v>
       </c>
       <c r="N4" s="7">
-        <v>374318</v>
+        <v>19261</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>159</v>
+        <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>160</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>120</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2961,49 +3489,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>24</v>
+        <v>175</v>
       </c>
       <c r="D5" s="7">
-        <v>15207</v>
+        <v>116769</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>161</v>
+        <v>200</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>162</v>
+        <v>201</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="H5" s="7">
-        <v>40</v>
+        <v>192</v>
       </c>
       <c r="I5" s="7">
-        <v>24906</v>
+        <v>119788</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>164</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>165</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>166</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
-        <v>64</v>
+        <v>367</v>
       </c>
       <c r="N5" s="7">
-        <v>40113</v>
+        <v>236557</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>167</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>129</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,10 +3540,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>321</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>213163</v>
+        <v>124164</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3027,10 +3555,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>326</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>201268</v>
+        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3042,10 +3570,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>647</v>
+        <v>398</v>
       </c>
       <c r="N6" s="7">
-        <v>414431</v>
+        <v>255818</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3065,49 +3593,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>337</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>231310</v>
+        <v>18872</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>337</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7">
-        <v>220443</v>
+        <v>23323</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
-        <v>674</v>
+        <v>65</v>
       </c>
       <c r="N7" s="7">
-        <v>451752</v>
+        <v>42196</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>175</v>
+        <v>194</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>176</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3116,49 +3644,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>26</v>
+        <v>352</v>
       </c>
       <c r="D8" s="7">
-        <v>18742</v>
+        <v>239189</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>178</v>
+        <v>217</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>218</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>180</v>
+        <v>219</v>
       </c>
       <c r="H8" s="7">
-        <v>23</v>
+        <v>295</v>
       </c>
       <c r="I8" s="7">
-        <v>14890</v>
+        <v>187194</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>181</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>182</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>183</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
-        <v>49</v>
+        <v>647</v>
       </c>
       <c r="N8" s="7">
-        <v>33633</v>
+        <v>426382</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>185</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>186</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3167,10 +3695,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>363</v>
+        <v>380</v>
       </c>
       <c r="D9" s="7">
-        <v>250052</v>
+        <v>258061</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3182,10 +3710,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>360</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>235333</v>
+        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3197,10 +3725,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>723</v>
+        <v>712</v>
       </c>
       <c r="N9" s="7">
-        <v>485385</v>
+        <v>468578</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3220,49 +3748,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>361</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>267097</v>
+        <v>14044</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>187</v>
+        <v>225</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>188</v>
+        <v>226</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>189</v>
+        <v>227</v>
       </c>
       <c r="H10" s="7">
-        <v>352</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>251223</v>
+        <v>12028</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>190</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>191</v>
+        <v>74</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>192</v>
+        <v>229</v>
       </c>
       <c r="M10" s="7">
-        <v>713</v>
+        <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>518320</v>
+        <v>26072</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>193</v>
+        <v>230</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>194</v>
+        <v>231</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>195</v>
+        <v>232</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3271,49 +3799,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>20</v>
+        <v>244</v>
       </c>
       <c r="D11" s="7">
-        <v>14532</v>
+        <v>174528</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>197</v>
+        <v>234</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>198</v>
+        <v>235</v>
       </c>
       <c r="H11" s="7">
-        <v>22</v>
+        <v>255</v>
       </c>
       <c r="I11" s="7">
-        <v>15930</v>
+        <v>176871</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>199</v>
+        <v>236</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>200</v>
+        <v>237</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>201</v>
+        <v>83</v>
       </c>
       <c r="M11" s="7">
-        <v>42</v>
+        <v>499</v>
       </c>
       <c r="N11" s="7">
-        <v>30462</v>
+        <v>351399</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3322,10 +3850,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="D12" s="7">
-        <v>281629</v>
+        <v>188572</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3337,10 +3865,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>374</v>
+        <v>272</v>
       </c>
       <c r="I12" s="7">
-        <v>267153</v>
+        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3352,10 +3880,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>755</v>
+        <v>535</v>
       </c>
       <c r="N12" s="7">
-        <v>548782</v>
+        <v>377471</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3369,55 +3897,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>995</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>696362</v>
+        <v>8171</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="H13" s="7">
-        <v>975</v>
+        <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>648028</v>
+        <v>8509</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="M13" s="7">
-        <v>1970</v>
+        <v>23</v>
       </c>
       <c r="N13" s="7">
-        <v>1344390</v>
+        <v>16680</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3426,49 +3954,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>70</v>
+        <v>224</v>
       </c>
       <c r="D14" s="7">
-        <v>48482</v>
+        <v>165877</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="H14" s="7">
-        <v>85</v>
+        <v>233</v>
       </c>
       <c r="I14" s="7">
-        <v>55726</v>
+        <v>164174</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
-        <v>155</v>
+        <v>457</v>
       </c>
       <c r="N14" s="7">
-        <v>104208</v>
+        <v>330051</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3477,55 +4005,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>235</v>
+      </c>
+      <c r="D15" s="7">
+        <v>174048</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>245</v>
+      </c>
+      <c r="I15" s="7">
+        <v>172683</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>480</v>
+      </c>
+      <c r="N15" s="7">
+        <v>346731</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>70</v>
+      </c>
+      <c r="D16" s="7">
+        <v>48482</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="H16" s="7">
+        <v>85</v>
+      </c>
+      <c r="I16" s="7">
+        <v>55726</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="M16" s="7">
+        <v>155</v>
+      </c>
+      <c r="N16" s="7">
+        <v>104208</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>995</v>
+      </c>
+      <c r="D17" s="7">
+        <v>696362</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="7">
+        <v>975</v>
+      </c>
+      <c r="I17" s="7">
+        <v>648028</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1970</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1344390</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>1065</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>744844</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1060</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>703754</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>2125</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1448598</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3538,8 +4227,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{189A6FE1-CF9C-4B20-80C6-16EA2113DC15}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCB84C4-9FD9-4EEC-B886-5A5B4CC50DD0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3555,7 +4244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>271</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3656,49 +4345,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>209</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>108709</v>
+        <v>5233</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>224</v>
+        <v>272</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>273</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>274</v>
       </c>
       <c r="H4" s="7">
-        <v>180</v>
+        <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>95180</v>
+        <v>4651</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>275</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>276</v>
       </c>
       <c r="M4" s="7">
-        <v>389</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>203889</v>
+        <v>9884</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>206</v>
+        <v>277</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>58</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3707,49 +4396,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>18</v>
+        <v>106</v>
       </c>
       <c r="D5" s="7">
-        <v>9229</v>
+        <v>53270</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>232</v>
+        <v>279</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>233</v>
+        <v>280</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>234</v>
+        <v>281</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="I5" s="7">
-        <v>8623</v>
+        <v>52718</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>282</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="M5" s="7">
-        <v>37</v>
+        <v>205</v>
       </c>
       <c r="N5" s="7">
-        <v>17852</v>
+        <v>105987</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>216</v>
+        <v>284</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>285</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,10 +4447,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>227</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7">
-        <v>117938</v>
+        <v>58503</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3773,10 +4462,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>199</v>
+        <v>109</v>
       </c>
       <c r="I6" s="7">
-        <v>103803</v>
+        <v>57369</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3788,10 +4477,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>426</v>
+        <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>221741</v>
+        <v>115871</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3811,49 +4500,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>245</v>
+        <v>27</v>
       </c>
       <c r="D7" s="7">
-        <v>187719</v>
+        <v>15425</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>286</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>287</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>242</v>
+        <v>288</v>
       </c>
       <c r="H7" s="7">
-        <v>257</v>
+        <v>24</v>
       </c>
       <c r="I7" s="7">
-        <v>182492</v>
+        <v>13421</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>243</v>
+        <v>289</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>244</v>
+        <v>290</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>245</v>
+        <v>291</v>
       </c>
       <c r="M7" s="7">
-        <v>502</v>
+        <v>51</v>
       </c>
       <c r="N7" s="7">
-        <v>370211</v>
+        <v>28846</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>246</v>
+        <v>292</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>247</v>
+        <v>293</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>248</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3862,49 +4551,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>26</v>
+        <v>249</v>
       </c>
       <c r="D8" s="7">
-        <v>17336</v>
+        <v>159874</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>249</v>
+        <v>295</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>250</v>
+        <v>296</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>251</v>
+        <v>297</v>
       </c>
       <c r="H8" s="7">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="I8" s="7">
-        <v>15775</v>
+        <v>145344</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>252</v>
+        <v>298</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>253</v>
+        <v>299</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>300</v>
       </c>
       <c r="M8" s="7">
-        <v>50</v>
+        <v>483</v>
       </c>
       <c r="N8" s="7">
-        <v>33112</v>
+        <v>305217</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>301</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>302</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,10 +4602,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="D9" s="7">
-        <v>205055</v>
+        <v>175299</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3928,10 +4617,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="I9" s="7">
-        <v>198267</v>
+        <v>158765</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3943,10 +4632,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>403323</v>
+        <v>334063</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3966,49 +4655,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>443</v>
+        <v>18</v>
       </c>
       <c r="D10" s="7">
-        <v>372441</v>
+        <v>14306</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>304</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>305</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>306</v>
       </c>
       <c r="H10" s="7">
-        <v>428</v>
+        <v>21</v>
       </c>
       <c r="I10" s="7">
-        <v>327612</v>
+        <v>14528</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>307</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>308</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>309</v>
       </c>
       <c r="M10" s="7">
-        <v>871</v>
+        <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>700055</v>
+        <v>28833</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>310</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>311</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4017,49 +4706,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>36</v>
+        <v>225</v>
       </c>
       <c r="D11" s="7">
-        <v>30269</v>
+        <v>188172</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>198</v>
+        <v>313</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>315</v>
       </c>
       <c r="H11" s="7">
-        <v>34</v>
+        <v>212</v>
       </c>
       <c r="I11" s="7">
-        <v>23196</v>
+        <v>161585</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>316</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>317</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>318</v>
       </c>
       <c r="M11" s="7">
-        <v>70</v>
+        <v>437</v>
       </c>
       <c r="N11" s="7">
-        <v>53464</v>
+        <v>349758</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>272</v>
+        <v>320</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>321</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,10 +4757,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>479</v>
+        <v>243</v>
       </c>
       <c r="D12" s="7">
-        <v>402710</v>
+        <v>202478</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4083,10 +4772,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>462</v>
+        <v>233</v>
       </c>
       <c r="I12" s="7">
-        <v>350808</v>
+        <v>176113</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4098,10 +4787,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>941</v>
+        <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>753519</v>
+        <v>378591</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4115,55 +4804,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>897</v>
+        <v>25</v>
       </c>
       <c r="D13" s="7">
-        <v>668870</v>
+        <v>21871</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>224</v>
+        <v>94</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>274</v>
+        <v>322</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>275</v>
+        <v>323</v>
       </c>
       <c r="H13" s="7">
-        <v>865</v>
+        <v>22</v>
       </c>
       <c r="I13" s="7">
-        <v>605285</v>
+        <v>14994</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>276</v>
+        <v>324</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>277</v>
+        <v>325</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>278</v>
+        <v>326</v>
       </c>
       <c r="M13" s="7">
-        <v>1762</v>
+        <v>47</v>
       </c>
       <c r="N13" s="7">
-        <v>1274154</v>
+        <v>36865</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>279</v>
+        <v>327</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>281</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4172,49 +4861,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>80</v>
+        <v>317</v>
       </c>
       <c r="D14" s="7">
-        <v>56834</v>
+        <v>267553</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>232</v>
+        <v>102</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>282</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>283</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
-        <v>77</v>
+        <v>320</v>
       </c>
       <c r="I14" s="7">
-        <v>47594</v>
+        <v>245639</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>284</v>
+        <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>285</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>333</v>
       </c>
       <c r="M14" s="7">
-        <v>157</v>
+        <v>637</v>
       </c>
       <c r="N14" s="7">
-        <v>104429</v>
+        <v>513192</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>334</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>168</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>289</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,55 +4912,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>342</v>
+      </c>
+      <c r="D15" s="7">
+        <v>289424</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>342</v>
+      </c>
+      <c r="I15" s="7">
+        <v>260633</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>684</v>
+      </c>
+      <c r="N15" s="7">
+        <v>550057</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>80</v>
+      </c>
+      <c r="D16" s="7">
+        <v>56834</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="H16" s="7">
+        <v>77</v>
+      </c>
+      <c r="I16" s="7">
+        <v>47594</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="M16" s="7">
+        <v>157</v>
+      </c>
+      <c r="N16" s="7">
+        <v>104429</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>897</v>
+      </c>
+      <c r="D17" s="7">
+        <v>668870</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>345</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="H17" s="7">
+        <v>865</v>
+      </c>
+      <c r="I17" s="7">
+        <v>605285</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1762</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1274154</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>977</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>725704</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>942</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>652879</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>1919</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>1378583</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP12-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E8365390-AD8D-4B55-98E4-6408D5AC9907}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{96825313-11A4-4D47-BC78-BA9103A49BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{6379C652-06FC-444F-A537-007D069911F8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9380BFCB-F2FF-4E85-B7E9-93EB8311D487}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="342">
   <si>
     <t>Menores según si limitaron su actividad por dolores o síntomas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1024 +77,994 @@
     <t>7,68%</t>
   </si>
   <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>13,86%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>86,14%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>91,89%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>9,21%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>94,37%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>95,77%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>90,79%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>10,54%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>97,85%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>94,79%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>94,55%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si limitaron su actividad por dolores o síntomas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
+    <t>17,75%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>86,29%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>82,25%</t>
+  </si>
+  <si>
+    <t>91,66%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>86,04%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>94,44%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>88,87%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>12,97%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>96,19%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>87,03%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>96,87%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>Menores según si limitaron su actividad por dolores o síntomas en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>14,88%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,12%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>10,96%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>89,04%</t>
+  </si>
+  <si>
+    <t>95,45%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>96,76%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>9,77%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>91,79%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>91,68%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>Menores según si limitaron su actividad por dolores o síntomas en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>8,94%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>16,21%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>12,99%</t>
+  </si>
+  <si>
+    <t>91,06%</t>
+  </si>
+  <si>
+    <t>83,79%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>13,01%</t>
+  </si>
+  <si>
+    <t>8,63%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>86,99%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,37%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
     <t>4,46%</t>
   </si>
   <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
   </si>
   <si>
     <t>95,54%</t>
   </si>
   <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>95,11%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>3-7</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,21%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>91,0%</t>
-  </si>
-  <si>
-    <t>95,79%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>8-11</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,33%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>92,38%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
   </si>
   <si>
     <t>7,56%</t>
   </si>
   <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>94,92%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
   </si>
   <si>
     <t>92,44%</t>
   </si>
   <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si limitaron su actividad por dolores o síntomas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,6%</t>
-  </si>
-  <si>
-    <t>13,85%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>13,99%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>86,15%</t>
-  </si>
-  <si>
-    <t>94,4%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>86,01%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>12,05%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>87,95%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>12,39%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>87,61%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>91,17%</t>
-  </si>
-  <si>
-    <t>96,96%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>Menores según si limitaron su actividad por dolores o síntomas en 2015 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>10,75%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,76%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>89,25%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>6,96%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>91,76%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>93,04%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>2,3%</t>
-  </si>
-  <si>
-    <t>7,71%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>95,31%</t>
-  </si>
-  <si>
-    <t>92,29%</t>
-  </si>
-  <si>
-    <t>97,7%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>9,75%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>8,31%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>90,25%</t>
-  </si>
-  <si>
-    <t>91,69%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>Menores según si limitaron su actividad por dolores o síntomas en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>15,97%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>12,85%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>84,03%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>87,15%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>11,49%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>88,51%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>12,12%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>88,95%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>8,47%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>95,23%</t>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
   </si>
   <si>
     <t>94,25%</t>
   </si>
   <si>
-    <t>91,53%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
   </si>
   <si>
     <t>93,3%</t>
   </si>
   <si>
-    <t>94,95%</t>
-  </si>
-  <si>
     <t>7,83%</t>
   </si>
   <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>7,29%</t>
   </si>
   <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>9,14%</t>
   </si>
   <si>
     <t>7,58%</t>
   </si>
   <si>
-    <t>6,46%</t>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
   </si>
   <si>
     <t>92,17%</t>
   </si>
   <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
+    <t>90,12%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
   </si>
   <si>
     <t>92,71%</t>
   </si>
   <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
+    <t>90,86%</t>
+  </si>
+  <si>
+    <t>94,21%</t>
   </si>
   <si>
     <t>92,42%</t>
   </si>
   <si>
-    <t>93,54%</t>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
   </si>
 </sst>
 </file>
@@ -1506,7 +1476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{907D3983-D955-4711-8CBE-8545E30EACF8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEBDC03-2F1F-42BB-9F38-B440B8110E0B}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1973,10 +1943,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2024,10 +1994,10 @@
         <v>65</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2271,7 +2241,7 @@
         <v>90</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="M16" s="7">
         <v>138</v>
@@ -2280,13 +2250,13 @@
         <v>91270</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2301,13 +2271,13 @@
         <v>675308</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>97</v>
       </c>
       <c r="H17" s="7">
         <v>951</v>
@@ -2316,13 +2286,13 @@
         <v>637143</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>1966</v>
@@ -2331,13 +2301,13 @@
         <v>1312451</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2393,7 +2363,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -2413,7 +2383,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2440F14-6A9A-43F6-95A7-A4969CD76727}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F70E05-7B66-432D-A600-BFB156E742ED}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2430,7 +2400,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2537,13 +2507,13 @@
         <v>13234</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>106</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>108</v>
       </c>
       <c r="H4" s="7">
         <v>26</v>
@@ -2552,13 +2522,13 @@
         <v>17965</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>109</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -2567,13 +2537,13 @@
         <v>31199</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2558,13 @@
         <v>132756</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>117</v>
       </c>
       <c r="H5" s="7">
         <v>193</v>
@@ -2603,13 +2573,13 @@
         <v>128796</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>118</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="M5" s="7">
         <v>382</v>
@@ -2618,13 +2588,13 @@
         <v>261552</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2692,13 +2662,13 @@
         <v>25118</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H7" s="7">
         <v>29</v>
@@ -2707,13 +2677,13 @@
         <v>20242</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -2722,13 +2692,13 @@
         <v>45359</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2743,13 +2713,13 @@
         <v>243873</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>78</v>
+        <v>94</v>
       </c>
       <c r="H8" s="7">
         <v>311</v>
@@ -2758,13 +2728,13 @@
         <v>216008</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>651</v>
@@ -2773,13 +2743,13 @@
         <v>459882</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2847,13 +2817,13 @@
         <v>10222</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>140</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>142</v>
       </c>
       <c r="H10" s="7">
         <v>20</v>
@@ -2862,13 +2832,13 @@
         <v>14011</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -2880,10 +2850,10 @@
         <v>11</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2898,13 +2868,13 @@
         <v>148349</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H11" s="7">
         <v>203</v>
@@ -2913,13 +2883,13 @@
         <v>143032</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M11" s="7">
         <v>417</v>
@@ -2931,10 +2901,10 @@
         <v>21</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3002,13 +2972,13 @@
         <v>14986</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -3017,13 +2987,13 @@
         <v>9074</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -3032,13 +3002,13 @@
         <v>24061</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>73</v>
+        <v>160</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3053,13 +3023,13 @@
         <v>164969</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H14" s="7">
         <v>230</v>
@@ -3068,13 +3038,13 @@
         <v>162263</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M14" s="7">
         <v>473</v>
@@ -3083,7 +3053,7 @@
         <v>327231</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>81</v>
+        <v>169</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>170</v>
@@ -3300,7 +3270,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -3320,7 +3290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E684E66F-1659-47A6-9DF3-10FE272BF586}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75764ED-15A1-4A21-BE5E-0A15C46A7EC8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3477,10 +3447,10 @@
         <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>198</v>
+        <v>87</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3495,13 +3465,13 @@
         <v>116769</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H5" s="7">
         <v>192</v>
@@ -3510,13 +3480,13 @@
         <v>119788</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>205</v>
       </c>
       <c r="M5" s="7">
         <v>367</v>
@@ -3525,13 +3495,13 @@
         <v>236557</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>208</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3599,13 +3569,13 @@
         <v>18872</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H7" s="7">
         <v>37</v>
@@ -3614,13 +3584,13 @@
         <v>23323</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -3632,10 +3602,10 @@
         <v>194</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>215</v>
+        <v>51</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>216</v>
+        <v>129</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3650,13 +3620,13 @@
         <v>239189</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H8" s="7">
         <v>295</v>
@@ -3665,13 +3635,13 @@
         <v>187194</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="M8" s="7">
         <v>647</v>
@@ -3680,13 +3650,13 @@
         <v>426382</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>224</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3754,13 +3724,13 @@
         <v>14044</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="H10" s="7">
         <v>17</v>
@@ -3769,13 +3739,13 @@
         <v>12028</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>74</v>
+        <v>221</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -3784,13 +3754,13 @@
         <v>26072</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3805,13 +3775,13 @@
         <v>174528</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="H11" s="7">
         <v>255</v>
@@ -3820,13 +3790,13 @@
         <v>176871</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>83</v>
+        <v>231</v>
       </c>
       <c r="M11" s="7">
         <v>499</v>
@@ -3835,13 +3805,13 @@
         <v>351399</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3909,13 +3879,13 @@
         <v>8171</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>241</v>
+        <v>55</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
@@ -3924,13 +3894,13 @@
         <v>8509</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>244</v>
+        <v>224</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>245</v>
+        <v>237</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -3939,13 +3909,13 @@
         <v>16680</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>249</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3960,13 +3930,13 @@
         <v>165877</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>250</v>
+        <v>64</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="H14" s="7">
         <v>233</v>
@@ -3975,13 +3945,13 @@
         <v>164174</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="M14" s="7">
         <v>457</v>
@@ -3990,13 +3960,13 @@
         <v>330051</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,10 +4037,10 @@
         <v>70</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="H16" s="7">
         <v>85</v>
@@ -4079,13 +4049,13 @@
         <v>55726</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>261</v>
+        <v>209</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>140</v>
+        <v>251</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="M16" s="7">
         <v>155</v>
@@ -4094,13 +4064,13 @@
         <v>104208</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4118,10 +4088,10 @@
         <v>78</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="H17" s="7">
         <v>975</v>
@@ -4130,13 +4100,13 @@
         <v>648028</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>267</v>
+        <v>216</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>148</v>
+        <v>259</v>
       </c>
       <c r="M17" s="7">
         <v>1970</v>
@@ -4145,13 +4115,13 @@
         <v>1344390</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4207,7 +4177,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -4227,7 +4197,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FCB84C4-9FD9-4EEC-B886-5A5B4CC50DD0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0997054-73C1-4D50-A5F5-B83E052EB68C}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4244,7 +4214,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4351,13 +4321,13 @@
         <v>5233</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
@@ -4369,10 +4339,10 @@
         <v>17</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -4381,13 +4351,13 @@
         <v>9884</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>58</v>
+        <v>144</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4402,13 +4372,13 @@
         <v>53270</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="H5" s="7">
         <v>99</v>
@@ -4420,10 +4390,10 @@
         <v>27</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="M5" s="7">
         <v>205</v>
@@ -4432,13 +4402,13 @@
         <v>105987</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>66</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4506,13 +4476,13 @@
         <v>15425</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4521,13 +4491,13 @@
         <v>13421</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
@@ -4536,13 +4506,13 @@
         <v>28846</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>293</v>
+        <v>35</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4557,13 +4527,13 @@
         <v>159874</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="H8" s="7">
         <v>234</v>
@@ -4572,13 +4542,13 @@
         <v>145344</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="M8" s="7">
         <v>483</v>
@@ -4587,13 +4557,13 @@
         <v>305217</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>303</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4661,13 +4631,13 @@
         <v>14306</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>306</v>
+        <v>207</v>
       </c>
       <c r="H10" s="7">
         <v>21</v>
@@ -4676,13 +4646,13 @@
         <v>14528</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
@@ -4691,13 +4661,13 @@
         <v>28833</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>310</v>
+        <v>299</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>311</v>
+        <v>300</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>312</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4712,13 +4682,13 @@
         <v>188172</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>314</v>
+        <v>212</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="H11" s="7">
         <v>212</v>
@@ -4727,13 +4697,13 @@
         <v>161585</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="M11" s="7">
         <v>437</v>
@@ -4742,13 +4712,13 @@
         <v>349758</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>321</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4816,13 +4786,13 @@
         <v>21871</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>94</v>
+        <v>310</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="H13" s="7">
         <v>22</v>
@@ -4831,13 +4801,13 @@
         <v>14994</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>325</v>
+        <v>314</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>326</v>
+        <v>315</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -4846,13 +4816,13 @@
         <v>36865</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>328</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>161</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4867,13 +4837,13 @@
         <v>267553</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>102</v>
+        <v>317</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>329</v>
+        <v>318</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>330</v>
+        <v>319</v>
       </c>
       <c r="H14" s="7">
         <v>320</v>
@@ -4882,13 +4852,13 @@
         <v>245639</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>331</v>
+        <v>320</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="M14" s="7">
         <v>637</v>
@@ -4897,13 +4867,13 @@
         <v>513192</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>168</v>
+        <v>271</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>335</v>
+        <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4971,13 +4941,13 @@
         <v>56834</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="H16" s="7">
         <v>77</v>
@@ -4986,13 +4956,13 @@
         <v>47594</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="M16" s="7">
         <v>157</v>
@@ -5001,13 +4971,13 @@
         <v>104429</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>161</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5022,13 +4992,13 @@
         <v>668870</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>333</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>334</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>335</v>
       </c>
       <c r="H17" s="7">
         <v>865</v>
@@ -5037,13 +5007,13 @@
         <v>605285</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>336</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>337</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>338</v>
       </c>
       <c r="M17" s="7">
         <v>1762</v>
@@ -5052,13 +5022,13 @@
         <v>1274154</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>339</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>168</v>
+        <v>340</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5114,7 +5084,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP12-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP12-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96825313-11A4-4D47-BC78-BA9103A49BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{304ECB07-1BA3-45BA-838B-F33B671706AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9380BFCB-F2FF-4E85-B7E9-93EB8311D487}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{0B3C7BA2-732B-4A22-8DF7-1B169AAF28CF}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="342">
-  <si>
-    <t>Menores según si limitaron su actividad por dolores o síntomas en 2007 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="352">
+  <si>
+    <t>Menores según si en las últimas 2 semanas limitaron su actividad por dolores o síntomas en 2007 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,61 +74,61 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
     <t>7,68%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>13,86%</t>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>8,11%</t>
   </si>
   <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
     <t>92,32%</t>
   </si>
   <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>86,14%</t>
-  </si>
-  <si>
-    <t>94,62%</t>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
   </si>
   <si>
     <t>91,89%</t>
   </si>
   <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>94,39%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,934 +137,964 @@
     <t>3-7</t>
   </si>
   <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
     <t>8,0%</t>
   </si>
   <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>6,34%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>5,46%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>92,0%</t>
   </si>
   <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>93,66%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>95,77%</t>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>5,08%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
     <t>7,04%</t>
   </si>
   <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>11,25%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>94,92%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>88,75%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>97,39%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>94,96%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si en las últimas 2 semanas limitaron su actividad por dolores o síntomas en 2012 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>9,07%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>83,27%</t>
+  </si>
+  <si>
+    <t>91,7%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>9,34%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>8,98%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>90,66%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>91,02%</t>
+  </si>
+  <si>
+    <t>88,53%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>10,23%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>96,36%</t>
+  </si>
+  <si>
+    <t>89,77%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>8,33%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>91,67%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>95,02%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>91,56%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>93,18%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>Menores según si en las últimas 2 semanas limitaron su actividad por dolores o síntomas en 2016 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>14,76%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>89,88%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>9,74%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>9,64%</t>
+  </si>
+  <si>
+    <t>93,63%</t>
+  </si>
+  <si>
+    <t>90,26%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,36%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
   </si>
   <si>
     <t>4,69%</t>
   </si>
   <si>
-    <t>13,4%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>86,6%</t>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>95,31%</t>
   </si>
   <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>12-15</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,15%</t>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>9,63%</t>
   </si>
   <si>
     <t>6,51%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>96,22%</t>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,36%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>90,37%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
   </si>
   <si>
     <t>93,49%</t>
   </si>
   <si>
-    <t>97,85%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>5,21%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>91,86%</t>
-  </si>
-  <si>
-    <t>94,79%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>94,55%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si limitaron su actividad por dolores o síntomas en 2012 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>9,07%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>12,24%</t>
-  </si>
-  <si>
-    <t>8,34%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>90,93%</t>
-  </si>
-  <si>
-    <t>86,29%</t>
-  </si>
-  <si>
-    <t>94,39%</t>
-  </si>
-  <si>
-    <t>87,76%</t>
-  </si>
-  <si>
-    <t>82,25%</t>
-  </si>
-  <si>
-    <t>91,66%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>86,04%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>9,34%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>8,98%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>11,13%</t>
-  </si>
-  <si>
-    <t>90,66%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>91,02%</t>
-  </si>
-  <si>
-    <t>88,87%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>94,94%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>91,64%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>Menores según si en las últimas 2 semanas limitaron su actividad por dolores o síntomas en 2023 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>14,43%</t>
+  </si>
+  <si>
+    <t>9,02%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>16,49%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
   </si>
   <si>
     <t>5,27%</t>
   </si>
   <si>
-    <t>12,97%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>96,19%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>87,03%</t>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>85,57%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>90,98%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
   </si>
   <si>
     <t>94,73%</t>
   </si>
   <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>8,33%</t>
-  </si>
-  <si>
-    <t>5,17%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>3,13%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>91,67%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>94,83%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>96,87%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>91,56%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>Menores según si limitaron su actividad por dolores o síntomas en 2016 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>14,16%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>96,53%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>85,84%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>14,88%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>95,02%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>85,12%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>10,96%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>89,04%</t>
-  </si>
-  <si>
-    <t>95,45%</t>
-  </si>
-  <si>
-    <t>93,63%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>96,76%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>9,77%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>91,79%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>90,23%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>Menores según si limitaron su actividad por dolores o síntomas en 2023 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>8,94%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>16,21%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>87,49%</t>
+  </si>
+  <si>
+    <t>94,6%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>7,71%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>92,29%</t>
+  </si>
+  <si>
+    <t>89,54%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>4,58%</t>
   </si>
   <si>
     <t>8,53%</t>
   </si>
   <si>
-    <t>12,99%</t>
-  </si>
-  <si>
-    <t>91,06%</t>
-  </si>
-  <si>
-    <t>83,79%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
+    <t>92,1%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
   </si>
   <si>
     <t>91,47%</t>
   </si>
   <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>91,37%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,25%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>12,54%</t>
-  </si>
-  <si>
-    <t>7,62%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>91,75%</t>
-  </si>
-  <si>
-    <t>87,46%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>92,38%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>91,3%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>9,88%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>6,38%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>90,12%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>90,86%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
   </si>
 </sst>
 </file>
@@ -1476,7 +1506,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DBEBDC03-2F1F-42BB-9F38-B440B8110E0B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29FAD459-B990-4DAF-9741-68AD927B09D2}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1594,10 +1624,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>9323</v>
+        <v>9132</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1609,10 +1639,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>9132</v>
+        <v>9323</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1645,10 +1675,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>168</v>
+        <v>147</v>
       </c>
       <c r="D5" s="7">
-        <v>112057</v>
+        <v>97039</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1660,10 +1690,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>147</v>
+        <v>168</v>
       </c>
       <c r="I5" s="7">
-        <v>97039</v>
+        <v>112057</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1696,25 +1726,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>162</v>
+      </c>
+      <c r="D6" s="7">
+        <v>106171</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>182</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>121380</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>162</v>
-      </c>
-      <c r="I6" s="7">
-        <v>106171</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1749,10 +1779,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="D7" s="7">
-        <v>20308</v>
+        <v>16058</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1764,10 +1794,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="I7" s="7">
-        <v>16058</v>
+        <v>20308</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1800,10 +1830,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D8" s="7">
-        <v>233448</v>
+        <v>237147</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1815,10 +1845,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="I8" s="7">
-        <v>237147</v>
+        <v>233448</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1851,25 +1881,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>379</v>
+      </c>
+      <c r="D9" s="7">
+        <v>253205</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>382</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>253756</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>379</v>
-      </c>
-      <c r="I9" s="7">
-        <v>253205</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1907,7 +1937,7 @@
         <v>15</v>
       </c>
       <c r="D10" s="7">
-        <v>9968</v>
+        <v>10743</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1922,7 +1952,7 @@
         <v>15</v>
       </c>
       <c r="I10" s="7">
-        <v>10743</v>
+        <v>9968</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1943,10 +1973,10 @@
         <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,34 +1985,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>176</v>
+      </c>
+      <c r="D11" s="7">
+        <v>116805</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H11" s="7">
         <v>197</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>131547</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="H11" s="7">
-        <v>176</v>
-      </c>
-      <c r="I11" s="7">
-        <v>116805</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>373</v>
@@ -1991,13 +2021,13 @@
         <v>248352</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2006,25 +2036,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>191</v>
+      </c>
+      <c r="D12" s="7">
+        <v>127548</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>212</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>141515</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>191</v>
-      </c>
-      <c r="I12" s="7">
-        <v>127548</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2053,7 +2083,7 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
@@ -2062,31 +2092,31 @@
         <v>12</v>
       </c>
       <c r="D13" s="7">
-        <v>7793</v>
+        <v>7945</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
         <v>12</v>
       </c>
       <c r="I13" s="7">
-        <v>7945</v>
+        <v>7793</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>24</v>
@@ -2095,13 +2125,13 @@
         <v>15738</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2110,34 +2140,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>274</v>
+      </c>
+      <c r="D14" s="7">
+        <v>186152</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H14" s="7">
         <v>298</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>198256</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H14" s="7">
-        <v>274</v>
-      </c>
-      <c r="I14" s="7">
-        <v>186152</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>572</v>
@@ -2146,13 +2176,13 @@
         <v>384408</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2161,25 +2191,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>286</v>
+      </c>
+      <c r="D15" s="7">
+        <v>194097</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>310</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>206049</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>286</v>
-      </c>
-      <c r="I15" s="7">
-        <v>194097</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2214,34 +2244,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>67</v>
+      </c>
+      <c r="D16" s="7">
+        <v>43878</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
         <v>71</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>47392</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="7">
-        <v>67</v>
-      </c>
-      <c r="I16" s="7">
-        <v>43878</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M16" s="7">
         <v>138</v>
@@ -2250,13 +2280,13 @@
         <v>91270</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2265,34 +2295,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>951</v>
+      </c>
+      <c r="D17" s="7">
+        <v>637143</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="7">
         <v>1015</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>675308</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="H17" s="7">
-        <v>951</v>
-      </c>
-      <c r="I17" s="7">
-        <v>637143</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>97</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M17" s="7">
         <v>1966</v>
@@ -2301,13 +2331,13 @@
         <v>1312451</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2316,25 +2346,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1018</v>
+      </c>
+      <c r="D18" s="7">
+        <v>681021</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1086</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2363,7 +2393,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -2383,7 +2413,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F70E05-7B66-432D-A600-BFB156E742ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3239302D-85D9-444A-BDA1-E4741D3FB408}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2400,7 +2430,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2501,34 +2531,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7">
+        <v>17965</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" s="7">
         <v>18</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>13234</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="H4" s="7">
-        <v>26</v>
-      </c>
-      <c r="I4" s="7">
-        <v>17965</v>
-      </c>
       <c r="J4" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
       <c r="M4" s="7">
         <v>44</v>
@@ -2537,13 +2567,13 @@
         <v>31199</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2552,31 +2582,31 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>193</v>
+      </c>
+      <c r="D5" s="7">
+        <v>128796</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" s="7">
         <v>189</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>132756</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="H5" s="7">
-        <v>193</v>
-      </c>
-      <c r="I5" s="7">
-        <v>128796</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>118</v>
@@ -2603,25 +2633,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>219</v>
+      </c>
+      <c r="D6" s="7">
+        <v>146761</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>207</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>145990</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>219</v>
-      </c>
-      <c r="I6" s="7">
-        <v>146761</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2656,34 +2686,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>25118</v>
+        <v>20242</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="I7" s="7">
-        <v>20242</v>
+        <v>25118</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
         <v>63</v>
@@ -2692,13 +2722,13 @@
         <v>45359</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2707,34 +2737,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>311</v>
+      </c>
+      <c r="D8" s="7">
+        <v>216008</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H8" s="7">
         <v>340</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>243873</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H8" s="7">
-        <v>311</v>
-      </c>
-      <c r="I8" s="7">
-        <v>216008</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
         <v>651</v>
@@ -2743,13 +2773,13 @@
         <v>459882</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2758,25 +2788,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>340</v>
+      </c>
+      <c r="D9" s="7">
+        <v>236250</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>374</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>268991</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>340</v>
-      </c>
-      <c r="I9" s="7">
-        <v>236250</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2811,34 +2841,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>20</v>
+      </c>
+      <c r="D10" s="7">
+        <v>14011</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="H10" s="7">
         <v>14</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>10222</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="H10" s="7">
-        <v>20</v>
-      </c>
-      <c r="I10" s="7">
-        <v>14011</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
         <v>34</v>
@@ -2847,13 +2877,13 @@
         <v>24233</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,34 +2892,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>203</v>
+      </c>
+      <c r="D11" s="7">
+        <v>143032</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H11" s="7">
         <v>214</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>148349</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="H11" s="7">
-        <v>203</v>
-      </c>
-      <c r="I11" s="7">
-        <v>143032</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="M11" s="7">
         <v>417</v>
@@ -2898,13 +2928,13 @@
         <v>291381</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2913,25 +2943,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>223</v>
+      </c>
+      <c r="D12" s="7">
+        <v>157043</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>228</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>158571</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>223</v>
-      </c>
-      <c r="I12" s="7">
-        <v>157043</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2960,40 +2990,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>13</v>
+      </c>
+      <c r="D13" s="7">
+        <v>9074</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="7">
         <v>22</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>14986</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="H13" s="7">
-        <v>13</v>
-      </c>
-      <c r="I13" s="7">
-        <v>9074</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M13" s="7">
         <v>35</v>
@@ -3002,13 +3032,13 @@
         <v>24061</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,34 +3047,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>230</v>
+      </c>
+      <c r="D14" s="7">
+        <v>162263</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H14" s="7">
         <v>243</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>164969</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H14" s="7">
-        <v>230</v>
-      </c>
-      <c r="I14" s="7">
-        <v>162263</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M14" s="7">
         <v>473</v>
@@ -3053,13 +3083,13 @@
         <v>327231</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3068,25 +3098,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>243</v>
+      </c>
+      <c r="D15" s="7">
+        <v>171337</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>265</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>179955</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>243</v>
-      </c>
-      <c r="I15" s="7">
-        <v>171337</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3124,31 +3154,31 @@
         <v>88</v>
       </c>
       <c r="D16" s="7">
-        <v>63560</v>
+        <v>61292</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>173</v>
+        <v>54</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H16" s="7">
         <v>88</v>
       </c>
       <c r="I16" s="7">
-        <v>61292</v>
+        <v>63560</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="M16" s="7">
         <v>176</v>
@@ -3157,13 +3187,13 @@
         <v>124852</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,25 +3202,25 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>937</v>
+      </c>
+      <c r="D17" s="7">
+        <v>650099</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="7">
         <v>986</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>689947</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="H17" s="7">
-        <v>937</v>
-      </c>
-      <c r="I17" s="7">
-        <v>650099</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>184</v>
@@ -3223,25 +3253,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1025</v>
+      </c>
+      <c r="D18" s="7">
+        <v>711391</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1074</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>753507</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1025</v>
-      </c>
-      <c r="I18" s="7">
-        <v>711391</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3270,7 +3300,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -3290,7 +3320,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D75764ED-15A1-4A21-BE5E-0A15C46A7EC8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5128A7CC-C364-43AC-AB8F-C5FB1B8E24E8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3408,10 +3438,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>7395</v>
+        <v>11866</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>191</v>
@@ -3423,10 +3453,10 @@
         <v>193</v>
       </c>
       <c r="H4" s="7">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="I4" s="7">
-        <v>11866</v>
+        <v>7395</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>194</v>
@@ -3447,10 +3477,10 @@
         <v>197</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3459,34 +3489,34 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>192</v>
+      </c>
+      <c r="D5" s="7">
+        <v>119788</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="H5" s="7">
         <v>175</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>116769</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="H5" s="7">
-        <v>192</v>
-      </c>
-      <c r="I5" s="7">
-        <v>119788</v>
-      </c>
       <c r="J5" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
         <v>367</v>
@@ -3495,13 +3525,13 @@
         <v>236557</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>96</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3510,25 +3540,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>211</v>
+      </c>
+      <c r="D6" s="7">
+        <v>131654</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>187</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>124164</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>211</v>
-      </c>
-      <c r="I6" s="7">
-        <v>131654</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3563,34 +3593,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>37</v>
+      </c>
+      <c r="D7" s="7">
+        <v>23323</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H7" s="7">
         <v>28</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>18872</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H7" s="7">
-        <v>37</v>
-      </c>
-      <c r="I7" s="7">
-        <v>23323</v>
-      </c>
       <c r="J7" s="7" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
         <v>65</v>
@@ -3599,13 +3629,13 @@
         <v>42196</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>51</v>
+        <v>215</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>129</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3614,34 +3644,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>295</v>
+      </c>
+      <c r="D8" s="7">
+        <v>187194</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H8" s="7">
         <v>352</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>239189</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="H8" s="7">
-        <v>295</v>
-      </c>
-      <c r="I8" s="7">
-        <v>187194</v>
-      </c>
       <c r="J8" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="M8" s="7">
         <v>647</v>
@@ -3650,13 +3680,13 @@
         <v>426382</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>136</v>
+        <v>223</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>59</v>
+        <v>224</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3665,25 +3695,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>332</v>
+      </c>
+      <c r="D9" s="7">
+        <v>210517</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>380</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>258061</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>332</v>
-      </c>
-      <c r="I9" s="7">
-        <v>210517</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3718,34 +3748,34 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>17</v>
+      </c>
+      <c r="D10" s="7">
+        <v>12028</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H10" s="7">
         <v>19</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>14044</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H10" s="7">
-        <v>17</v>
-      </c>
-      <c r="I10" s="7">
-        <v>12028</v>
-      </c>
       <c r="J10" s="7" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="M10" s="7">
         <v>36</v>
@@ -3754,13 +3784,13 @@
         <v>26072</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3769,34 +3799,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>255</v>
+      </c>
+      <c r="D11" s="7">
+        <v>176871</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="H11" s="7">
         <v>244</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>174528</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="H11" s="7">
-        <v>255</v>
-      </c>
-      <c r="I11" s="7">
-        <v>176871</v>
-      </c>
       <c r="J11" s="7" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
         <v>499</v>
@@ -3805,13 +3835,13 @@
         <v>351399</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3820,25 +3850,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>272</v>
+      </c>
+      <c r="D12" s="7">
+        <v>188899</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>263</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>188572</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>272</v>
-      </c>
-      <c r="I12" s="7">
-        <v>188899</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3867,40 +3897,40 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>8509</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="H13" s="7">
         <v>11</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>8171</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>235</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="H13" s="7">
-        <v>12</v>
-      </c>
-      <c r="I13" s="7">
-        <v>8509</v>
-      </c>
       <c r="J13" s="7" t="s">
-        <v>224</v>
+        <v>245</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>238</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -3909,13 +3939,13 @@
         <v>16680</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3924,34 +3954,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>233</v>
+      </c>
+      <c r="D14" s="7">
+        <v>164174</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H14" s="7">
         <v>224</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>165877</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="H14" s="7">
-        <v>233</v>
-      </c>
-      <c r="I14" s="7">
-        <v>164174</v>
-      </c>
       <c r="J14" s="7" t="s">
-        <v>234</v>
+        <v>252</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>244</v>
+        <v>219</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="M14" s="7">
         <v>457</v>
@@ -3960,13 +3990,13 @@
         <v>330051</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,25 +4005,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>245</v>
+      </c>
+      <c r="D15" s="7">
+        <v>172683</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>235</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>174048</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>245</v>
-      </c>
-      <c r="I15" s="7">
-        <v>172683</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4028,34 +4058,34 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>85</v>
+      </c>
+      <c r="D16" s="7">
+        <v>55726</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H16" s="7">
         <v>70</v>
       </c>
-      <c r="D16" s="7">
+      <c r="I16" s="7">
         <v>48482</v>
       </c>
-      <c r="E16" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>249</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>250</v>
-      </c>
-      <c r="H16" s="7">
-        <v>85</v>
-      </c>
-      <c r="I16" s="7">
-        <v>55726</v>
-      </c>
       <c r="J16" s="7" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
         <v>155</v>
@@ -4064,13 +4094,13 @@
         <v>104208</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4079,34 +4109,34 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>975</v>
+      </c>
+      <c r="D17" s="7">
+        <v>648028</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H17" s="7">
         <v>995</v>
       </c>
-      <c r="D17" s="7">
+      <c r="I17" s="7">
         <v>696362</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>257</v>
-      </c>
-      <c r="H17" s="7">
-        <v>975</v>
-      </c>
-      <c r="I17" s="7">
-        <v>648028</v>
-      </c>
       <c r="J17" s="7" t="s">
-        <v>216</v>
+        <v>269</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>259</v>
+        <v>271</v>
       </c>
       <c r="M17" s="7">
         <v>1970</v>
@@ -4115,13 +4145,13 @@
         <v>1344390</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>261</v>
+        <v>273</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4130,25 +4160,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>1060</v>
+      </c>
+      <c r="D18" s="7">
+        <v>703754</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>1065</v>
       </c>
-      <c r="D18" s="7">
+      <c r="I18" s="7">
         <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1060</v>
-      </c>
-      <c r="I18" s="7">
-        <v>703754</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4177,7 +4207,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -4197,7 +4227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0997054-73C1-4D50-A5F5-B83E052EB68C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B566562E-152F-4EE5-99CC-B7D9BB6FB535}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4214,7 +4244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4318,46 +4348,46 @@
         <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>5233</v>
+        <v>4575</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
         <v>10</v>
       </c>
       <c r="I4" s="7">
-        <v>4651</v>
+        <v>5544</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>17</v>
+        <v>279</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>9884</v>
+        <v>10119</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>144</v>
+        <v>283</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>270</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4366,49 +4396,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>99</v>
+      </c>
+      <c r="D5" s="7">
+        <v>52936</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="H5" s="7">
         <v>106</v>
       </c>
-      <c r="D5" s="7">
-        <v>53270</v>
-      </c>
-      <c r="E5" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="H5" s="7">
-        <v>99</v>
-      </c>
       <c r="I5" s="7">
-        <v>52718</v>
+        <v>55900</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>27</v>
+        <v>288</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>274</v>
+        <v>289</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>275</v>
+        <v>290</v>
       </c>
       <c r="M5" s="7">
         <v>205</v>
       </c>
       <c r="N5" s="7">
-        <v>105987</v>
+        <v>108836</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>276</v>
+        <v>291</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>277</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>153</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4417,25 +4447,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>109</v>
+      </c>
+      <c r="D6" s="7">
+        <v>57511</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>116</v>
       </c>
-      <c r="D6" s="7">
-        <v>58503</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>109</v>
-      </c>
       <c r="I6" s="7">
-        <v>57369</v>
+        <v>61444</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4450,7 +4480,7 @@
         <v>225</v>
       </c>
       <c r="N6" s="7">
-        <v>115871</v>
+        <v>118955</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4470,49 +4500,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>24</v>
+      </c>
+      <c r="D7" s="7">
+        <v>13265</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H7" s="7">
         <v>27</v>
       </c>
-      <c r="D7" s="7">
-        <v>15425</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H7" s="7">
-        <v>24</v>
-      </c>
       <c r="I7" s="7">
-        <v>13421</v>
+        <v>16037</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>281</v>
+        <v>296</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>282</v>
+        <v>297</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>283</v>
+        <v>298</v>
       </c>
       <c r="M7" s="7">
         <v>51</v>
       </c>
       <c r="N7" s="7">
-        <v>28846</v>
+        <v>29303</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>284</v>
+        <v>122</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>35</v>
+        <v>299</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4521,49 +4551,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>234</v>
+      </c>
+      <c r="D8" s="7">
+        <v>146034</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="H8" s="7">
         <v>249</v>
       </c>
-      <c r="D8" s="7">
-        <v>159874</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="H8" s="7">
-        <v>234</v>
-      </c>
       <c r="I8" s="7">
-        <v>145344</v>
+        <v>166517</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>290</v>
+        <v>304</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>291</v>
+        <v>305</v>
       </c>
       <c r="M8" s="7">
         <v>483</v>
       </c>
       <c r="N8" s="7">
-        <v>305217</v>
+        <v>312550</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>292</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>293</v>
+        <v>306</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>307</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4572,25 +4602,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>258</v>
+      </c>
+      <c r="D9" s="7">
+        <v>159299</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>276</v>
       </c>
-      <c r="D9" s="7">
-        <v>175299</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>258</v>
-      </c>
       <c r="I9" s="7">
-        <v>158765</v>
+        <v>182554</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4605,7 +4635,7 @@
         <v>534</v>
       </c>
       <c r="N9" s="7">
-        <v>334063</v>
+        <v>341853</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4625,49 +4655,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>21</v>
+      </c>
+      <c r="D10" s="7">
+        <v>14863</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H10" s="7">
         <v>18</v>
       </c>
-      <c r="D10" s="7">
-        <v>14306</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="H10" s="7">
-        <v>21</v>
-      </c>
       <c r="I10" s="7">
-        <v>14528</v>
+        <v>14875</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>296</v>
+        <v>311</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>297</v>
+        <v>312</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>298</v>
+        <v>313</v>
       </c>
       <c r="M10" s="7">
         <v>39</v>
       </c>
       <c r="N10" s="7">
-        <v>28833</v>
+        <v>29738</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>299</v>
+        <v>314</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>300</v>
+        <v>315</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>301</v>
+        <v>316</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4676,49 +4706,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>212</v>
+      </c>
+      <c r="D11" s="7">
+        <v>158209</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="H11" s="7">
         <v>225</v>
       </c>
-      <c r="D11" s="7">
-        <v>188172</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="H11" s="7">
-        <v>212</v>
-      </c>
       <c r="I11" s="7">
-        <v>161585</v>
+        <v>197615</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>305</v>
+        <v>321</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>306</v>
+        <v>322</v>
       </c>
       <c r="M11" s="7">
         <v>437</v>
       </c>
       <c r="N11" s="7">
-        <v>349758</v>
+        <v>355825</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>307</v>
+        <v>323</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>308</v>
+        <v>324</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>309</v>
+        <v>325</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4727,25 +4757,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>233</v>
+      </c>
+      <c r="D12" s="7">
+        <v>173072</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>243</v>
       </c>
-      <c r="D12" s="7">
-        <v>202478</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>233</v>
-      </c>
       <c r="I12" s="7">
-        <v>176113</v>
+        <v>212490</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4760,7 +4790,7 @@
         <v>476</v>
       </c>
       <c r="N12" s="7">
-        <v>378591</v>
+        <v>385563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4774,55 +4804,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>22</v>
+      </c>
+      <c r="D13" s="7">
+        <v>14568</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="H13" s="7">
         <v>25</v>
       </c>
-      <c r="D13" s="7">
-        <v>21871</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="H13" s="7">
-        <v>22</v>
-      </c>
       <c r="I13" s="7">
-        <v>14994</v>
+        <v>22647</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>314</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>315</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
       </c>
       <c r="N13" s="7">
-        <v>36865</v>
+        <v>37215</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>316</v>
+        <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>332</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>264</v>
+        <v>333</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4831,49 +4861,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>320</v>
+      </c>
+      <c r="D14" s="7">
+        <v>260890</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="H14" s="7">
         <v>317</v>
       </c>
-      <c r="D14" s="7">
-        <v>267553</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="H14" s="7">
-        <v>320</v>
-      </c>
       <c r="I14" s="7">
-        <v>245639</v>
+        <v>282836</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>320</v>
+        <v>336</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>322</v>
+        <v>338</v>
       </c>
       <c r="M14" s="7">
         <v>637</v>
       </c>
       <c r="N14" s="7">
-        <v>513192</v>
+        <v>543725</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>323</v>
+        <v>339</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>271</v>
+        <v>340</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>98</v>
+        <v>341</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,7 +4915,7 @@
         <v>342</v>
       </c>
       <c r="D15" s="7">
-        <v>289424</v>
+        <v>275458</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4900,7 +4930,7 @@
         <v>342</v>
       </c>
       <c r="I15" s="7">
-        <v>260633</v>
+        <v>305483</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4915,7 +4945,7 @@
         <v>684</v>
       </c>
       <c r="N15" s="7">
-        <v>550057</v>
+        <v>580940</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4935,49 +4965,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>77</v>
+      </c>
+      <c r="D16" s="7">
+        <v>47272</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>342</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H16" s="7">
         <v>80</v>
       </c>
-      <c r="D16" s="7">
-        <v>56834</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>325</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="H16" s="7">
-        <v>77</v>
-      </c>
       <c r="I16" s="7">
-        <v>47594</v>
+        <v>59103</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>327</v>
+        <v>344</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>328</v>
+        <v>345</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>329</v>
+        <v>227</v>
       </c>
       <c r="M16" s="7">
         <v>157</v>
       </c>
       <c r="N16" s="7">
-        <v>104429</v>
+        <v>106375</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>330</v>
+        <v>228</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>331</v>
+        <v>258</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>332</v>
+        <v>346</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4986,49 +5016,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>865</v>
+      </c>
+      <c r="D17" s="7">
+        <v>618068</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>348</v>
+      </c>
+      <c r="H17" s="7">
         <v>897</v>
       </c>
-      <c r="D17" s="7">
-        <v>668870</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>334</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>335</v>
-      </c>
-      <c r="H17" s="7">
-        <v>865</v>
-      </c>
       <c r="I17" s="7">
-        <v>605285</v>
+        <v>702869</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>336</v>
+        <v>349</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>337</v>
+        <v>235</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
         <v>1762</v>
       </c>
       <c r="N17" s="7">
-        <v>1274154</v>
+        <v>1320937</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>339</v>
+        <v>237</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>340</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>341</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5037,25 +5067,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>942</v>
+      </c>
+      <c r="D18" s="7">
+        <v>665340</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>977</v>
       </c>
-      <c r="D18" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>942</v>
-      </c>
       <c r="I18" s="7">
-        <v>652879</v>
+        <v>761972</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5070,7 +5100,7 @@
         <v>1919</v>
       </c>
       <c r="N18" s="7">
-        <v>1378583</v>
+        <v>1427312</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5084,7 +5114,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
